--- a/赛业笼位实时更新.xlsx
+++ b/赛业笼位实时更新.xlsx
@@ -13,15 +13,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_Sheet1C39G431" hidden="1">Sheet1!$C$39:$G$43</definedName>
-    <definedName name="_xlcn.WorksheetConnection_赛业笼位实时更新.xlsx表11" hidden="1">表1[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Sheet1C39G43" hidden="1">Sheet1!$C$39:$G$43</definedName>
+    <definedName name="_xlcn.WorksheetConnection_赛业笼位实时更新.xlsx表1" hidden="1">表1[]</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="30" r:id="rId5"/>
-    <pivotCache cacheId="35" r:id="rId6"/>
-    <pivotCache cacheId="67" r:id="rId7"/>
-    <pivotCache cacheId="100" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="3" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
@@ -51,7 +51,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="区域-71fd0995-7c2b-4b13-93db-023b281384f1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Sheet1C39G431"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Sheet1C39G43"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -60,7 +60,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="表1-ed828879-6a29-4485-a2aa-f971258d94a4">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_赛业笼位实时更新.xlsx表11"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_赛业笼位实时更新.xlsx表1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="97">
   <si>
     <t>单位</t>
   </si>
@@ -372,6 +372,10 @@
   </si>
   <si>
     <t>求和项:MC</t>
+  </si>
+  <si>
+    <t>改excel会怎么样呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -557,96 +561,6 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -669,59 +583,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -796,6 +657,40 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -811,6 +706,115 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1698,7 +1702,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表7" cacheId="67" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:I17" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1863,7 +1867,48 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表8" cacheId="100" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I32:I35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表8" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H8:J15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -1943,49 +1988,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I32:I35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="1"/>
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表5" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表5" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J9:M15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="14" showAll="0"/>
@@ -2077,15 +2081,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G58" totalsRowShown="0">
   <autoFilter ref="A1:G58"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="日期" dataDxfId="9" totalsRowDxfId="6"/>
-    <tableColumn id="7" name="列2" dataDxfId="1" totalsRowDxfId="2">
+    <tableColumn id="1" name="日期" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="7" name="列2" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>YEAR(表1[[#This Row],[日期]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="列1" dataDxfId="0" totalsRowDxfId="3">
+    <tableColumn id="6" name="列1" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>MONTH(表1[[#This Row],[日期]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="cars" dataDxfId="8" totalsRowDxfId="5"/>
-    <tableColumn id="3" name="pus1" dataDxfId="7" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="cars" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="3" name="pus1" dataDxfId="1" totalsRowDxfId="0"/>
     <tableColumn id="4" name="PUS3"/>
     <tableColumn id="5" name="PUS7"/>
   </tableColumns>
@@ -2742,7 +2746,7 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2876,7 +2880,9 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
